--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_HAMPSHIRE_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_HAMPSHIRE_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C11">
@@ -633,7 +633,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C32">
@@ -905,7 +905,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C38">
@@ -918,7 +918,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C39">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C51">
@@ -1133,7 +1133,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C54">
@@ -1203,7 +1203,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C59">
@@ -1216,7 +1216,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C60">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C69">
@@ -1392,7 +1392,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C72">
@@ -1457,41 +1457,6 @@
       </c>
       <c r="D76">
         <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_HAMPSHIRE_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_HAMPSHIRE_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -890,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1131,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1170,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1201,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1227,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1271,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1302,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1333,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1364,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -1377,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1390,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -1403,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1434,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
